--- a/Documents/List API.xlsx
+++ b/Documents/List API.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10113"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84305E03-19B9-486B-A332-96C0C868697A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436047F9-0E3C-D64E-B892-F38C92669B40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -490,6 +489,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -511,60 +561,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -844,1367 +843,1217 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5:T44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23:L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="5.140625" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" customWidth="1"/>
-    <col min="7" max="7" width="36.42578125" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" customWidth="1"/>
+    <col min="7" max="7" width="36.5" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.1640625" customWidth="1"/>
+    <col min="16" max="16" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="3" t="s">
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="7" t="s">
+      <c r="G5" s="21"/>
+      <c r="H5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2" t="s">
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2" t="s">
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2" t="s">
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="17" t="s">
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="19"/>
-    </row>
-    <row r="8" spans="2:20" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="16"/>
+    </row>
+    <row r="8" spans="2:20" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="12" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="13"/>
+      <c r="G8" s="18"/>
       <c r="H8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9" t="s">
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-    </row>
-    <row r="9" spans="2:20" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+    </row>
+    <row r="9" spans="2:20" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>2</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="12" t="s">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="13"/>
+      <c r="G9" s="18"/>
       <c r="H9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9" t="s">
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-    </row>
-    <row r="10" spans="2:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+    </row>
+    <row r="10" spans="2:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>3</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="12" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="13"/>
+      <c r="G10" s="18"/>
       <c r="H10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="9" t="s">
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>4</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="12" t="s">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="13"/>
+      <c r="G11" s="18"/>
       <c r="H11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <v>5</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="12" t="s">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="13"/>
+      <c r="G12" s="18"/>
       <c r="H12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11" t="s">
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-    </row>
-    <row r="13" spans="2:20" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+    </row>
+    <row r="13" spans="2:20" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <v>6</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="12" t="s">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="13"/>
+      <c r="G13" s="18"/>
       <c r="H13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="9" t="s">
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="14" t="s">
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B14" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="16"/>
-    </row>
-    <row r="15" spans="2:20" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="11"/>
+    </row>
+    <row r="15" spans="2:20" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>1</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="20" t="s">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="21"/>
+      <c r="G15" s="8"/>
       <c r="H15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9" t="s">
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-    </row>
-    <row r="16" spans="2:20" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+    </row>
+    <row r="16" spans="2:20" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <v>2</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="20" t="s">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="21"/>
+      <c r="G16" s="8"/>
       <c r="H16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I16" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9" t="s">
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <v>3</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="20" t="s">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="21"/>
+      <c r="G17" s="8"/>
       <c r="H17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="I17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="9" t="s">
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
         <v>4</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="20" t="s">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G18" s="21"/>
+      <c r="G18" s="8"/>
       <c r="H18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="I18" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="10" t="s">
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <v>5</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="20" t="s">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="21"/>
+      <c r="G19" s="8"/>
       <c r="H19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="I19" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="10" t="s">
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
         <v>6</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="20" t="s">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="21"/>
+      <c r="G20" s="8"/>
       <c r="H20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="I20" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="10" t="s">
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>7</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="20" t="s">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G21" s="21"/>
+      <c r="G21" s="8"/>
       <c r="H21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="10" t="s">
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="14" t="s">
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B22" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="25"/>
-    </row>
-    <row r="23" spans="2:20" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="13"/>
+    </row>
+    <row r="23" spans="2:20" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
         <v>1</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="20" t="s">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G23" s="21"/>
+      <c r="G23" s="8"/>
       <c r="H23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="I23" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9" t="s">
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-    </row>
-    <row r="24" spans="2:20" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+    </row>
+    <row r="24" spans="2:20" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1">
         <v>2</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="20" t="s">
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G24" s="21"/>
+      <c r="G24" s="8"/>
       <c r="H24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="I24" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9" t="s">
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B25" s="1">
         <v>3</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="20" t="s">
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G25" s="21"/>
+      <c r="G25" s="8"/>
       <c r="H25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I25" s="11" t="s">
+      <c r="I25" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="10" t="s">
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B26" s="1">
         <v>4</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="20" t="s">
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G26" s="21"/>
+      <c r="G26" s="8"/>
       <c r="H26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I26" s="11" t="s">
+      <c r="I26" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="10" t="s">
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B27" s="1">
         <v>5</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="20" t="s">
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G27" s="21"/>
+      <c r="G27" s="8"/>
       <c r="H27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I27" s="11" t="s">
+      <c r="I27" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="10" t="s">
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B28" s="1">
         <v>6</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="20" t="s">
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G28" s="21"/>
+      <c r="G28" s="8"/>
       <c r="H28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I28" s="11" t="s">
+      <c r="I28" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="10" t="s">
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B29" s="14" t="s">
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B29" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="15"/>
-      <c r="S29" s="15"/>
-      <c r="T29" s="16"/>
-    </row>
-    <row r="30" spans="2:20" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="11"/>
+    </row>
+    <row r="30" spans="2:20" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1">
         <v>1</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="20" t="s">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G30" s="21"/>
+      <c r="G30" s="8"/>
       <c r="H30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I30" s="9" t="s">
+      <c r="I30" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9" t="s">
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="10"/>
-    </row>
-    <row r="31" spans="2:20" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+    </row>
+    <row r="31" spans="2:20" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="1">
         <v>2</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="20" t="s">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G31" s="21"/>
+      <c r="G31" s="8"/>
       <c r="H31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="9" t="s">
+      <c r="I31" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9" t="s">
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
-      <c r="T31" s="10"/>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B32" s="1">
         <v>3</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="20" t="s">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G32" s="21"/>
+      <c r="G32" s="8"/>
       <c r="H32" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I32" s="11" t="s">
+      <c r="I32" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="10" t="s">
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
-      <c r="T32" s="10"/>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B33" s="1">
         <v>4</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="20" t="s">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G33" s="21"/>
+      <c r="G33" s="8"/>
       <c r="H33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I33" s="11" t="s">
+      <c r="I33" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="10" t="s">
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
-      <c r="T33" s="10"/>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
         <v>5</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="20" t="s">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G34" s="21"/>
+      <c r="G34" s="8"/>
       <c r="H34" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I34" s="11" t="s">
+      <c r="I34" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="10" t="s">
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="10"/>
-      <c r="T34" s="10"/>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B35" s="1">
         <v>6</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="20" t="s">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G35" s="21"/>
+      <c r="G35" s="8"/>
       <c r="H35" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I35" s="11" t="s">
+      <c r="I35" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="10" t="s">
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="10"/>
-      <c r="T35" s="10"/>
-    </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B36" s="1">
         <v>7</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="20" t="s">
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G36" s="21"/>
+      <c r="G36" s="8"/>
       <c r="H36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I36" s="11" t="s">
+      <c r="I36" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="10" t="s">
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="10"/>
-      <c r="T36" s="10"/>
-    </row>
-    <row r="37" spans="2:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+    </row>
+    <row r="37" spans="2:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="1">
         <v>8</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="22" t="s">
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G37" s="23"/>
+      <c r="G37" s="4"/>
       <c r="H37" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I37" s="11" t="s">
+      <c r="I37" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="10" t="s">
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="10"/>
-      <c r="S37" s="10"/>
-      <c r="T37" s="10"/>
-    </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B38" s="1"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="23"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="4"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="10"/>
-      <c r="S38" s="10"/>
-      <c r="T38" s="10"/>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B39" s="1"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="23"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="4"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="10"/>
-      <c r="T39" s="10"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B40" s="1"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="23"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="4"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="10"/>
-      <c r="T40" s="10"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B41" s="1"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="23"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="4"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="10"/>
-      <c r="S41" s="10"/>
-      <c r="T41" s="10"/>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B42" s="1"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="23"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="4"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="10"/>
-      <c r="S42" s="10"/>
-      <c r="T42" s="10"/>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B43" s="1"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="23"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="4"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="10"/>
-      <c r="S43" s="10"/>
-      <c r="T43" s="10"/>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B44" s="1"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="23"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="4"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="10"/>
-      <c r="R44" s="10"/>
-      <c r="S44" s="10"/>
-      <c r="T44" s="10"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="182">
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="I44:L44"/>
-    <mergeCell ref="M44:P44"/>
-    <mergeCell ref="Q44:T44"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="I43:L43"/>
-    <mergeCell ref="M43:P43"/>
-    <mergeCell ref="Q43:T43"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="I42:L42"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="Q42:T42"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="M41:P41"/>
-    <mergeCell ref="Q41:T41"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="Q40:T40"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="Q39:T39"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="Q38:T38"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="Q37:T37"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="Q36:T36"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="I35:L35"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="Q35:T35"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="I34:L34"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="Q34:T34"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="Q33:T33"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="Q32:T32"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="Q31:T31"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="I30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="Q30:T30"/>
-    <mergeCell ref="B29:T29"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="Q27:T27"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="Q23:T23"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B22:T22"/>
-    <mergeCell ref="B7:T7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="Q19:T19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="Q16:T16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="Q17:T17"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="B14:T14"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="I5:L6"/>
+    <mergeCell ref="C5:E6"/>
+    <mergeCell ref="M5:T5"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="F5:G6"/>
+    <mergeCell ref="H5:H6"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="I10:L10"/>
     <mergeCell ref="M10:P10"/>
@@ -2221,14 +2070,164 @@
     <mergeCell ref="M9:P9"/>
     <mergeCell ref="Q9:T9"/>
     <mergeCell ref="C8:E8"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="I5:L6"/>
-    <mergeCell ref="C5:E6"/>
-    <mergeCell ref="M5:T5"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="F5:G6"/>
-    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="B14:T14"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="B7:T7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="Q20:T20"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B22:T22"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="Q30:T30"/>
+    <mergeCell ref="B29:T29"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="Q32:T32"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="Q31:T31"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="Q34:T34"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="Q33:T33"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="Q36:T36"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="Q35:T35"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="Q38:T38"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="Q37:T37"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="Q40:T40"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="Q39:T39"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="Q42:T42"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="Q41:T41"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="I44:L44"/>
+    <mergeCell ref="M44:P44"/>
+    <mergeCell ref="Q44:T44"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="I43:L43"/>
+    <mergeCell ref="M43:P43"/>
+    <mergeCell ref="Q43:T43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
